--- a/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>43.1459774562938</v>
+        <v>43.86360468575906</v>
       </c>
       <c r="D2">
-        <v>1.36931518435985</v>
+        <v>1.324737500215837</v>
       </c>
       <c r="E2">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F2">
         <v>548.5188786062398</v>
       </c>
       <c r="H2">
-        <v>0.003947133805342503</v>
+        <v>0.003818635935707783</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>43.65526039771242</v>
+        <v>44.27461023442892</v>
       </c>
       <c r="D3">
-        <v>1.311243583502975</v>
+        <v>1.267579754141813</v>
       </c>
       <c r="E3">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F3">
         <v>548.5188786062398</v>
       </c>
       <c r="H3">
-        <v>0.003779738904964117</v>
+        <v>0.003653875276991043</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.98828209298467</v>
+        <v>44.45161144623105</v>
       </c>
       <c r="D4">
-        <v>1.300193575947225</v>
+        <v>1.258587768829978</v>
       </c>
       <c r="E4">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F4">
         <v>548.5188786062398</v>
       </c>
       <c r="H4">
-        <v>0.003747886590120343</v>
+        <v>0.003627955335689816</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.33447262634245</v>
+        <v>44.69256668000024</v>
       </c>
       <c r="D5">
-        <v>1.287046358502292</v>
+        <v>1.247277858123634</v>
       </c>
       <c r="E5">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F5">
         <v>548.5188786062398</v>
       </c>
       <c r="H5">
-        <v>0.00370998894097732</v>
+        <v>0.003595353834301159</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>44.60025138058516</v>
+        <v>44.92994735903839</v>
       </c>
       <c r="D6">
-        <v>1.270166828197334</v>
+        <v>1.233343745967549</v>
       </c>
       <c r="E6">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F6">
         <v>548.5188786062398</v>
       </c>
       <c r="G6">
-        <v>0.009089212026821026</v>
+        <v>0.006664641707995811</v>
       </c>
       <c r="H6">
-        <v>0.003661332674366101</v>
+        <v>0.003555187913578949</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>44.8899780835971</v>
+        <v>45.1708040499516</v>
       </c>
       <c r="D7">
-        <v>1.246102616041154</v>
+        <v>1.213093578896361</v>
       </c>
       <c r="E7">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F7">
         <v>548.5188786062398</v>
       </c>
       <c r="G7">
-        <v>0.007716985536779264</v>
+        <v>0.005601211347016744</v>
       </c>
       <c r="H7">
-        <v>0.003591966127945309</v>
+        <v>0.003496815582706209</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.19915683618643</v>
+        <v>45.39075886766861</v>
       </c>
       <c r="D8">
-        <v>1.225348933909671</v>
+        <v>1.19286192732449</v>
       </c>
       <c r="E8">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F8">
         <v>548.5188786062398</v>
       </c>
       <c r="G8">
-        <v>0.007567967145011023</v>
+        <v>0.005869671383984754</v>
       </c>
       <c r="H8">
-        <v>0.003532142384469621</v>
+        <v>0.003438496623879666</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.53173409644113</v>
+        <v>45.66420372150967</v>
       </c>
       <c r="D9">
-        <v>1.202837253458845</v>
+        <v>1.1699308598577</v>
       </c>
       <c r="E9">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F9">
         <v>548.5188786062398</v>
       </c>
       <c r="G9">
-        <v>0.007482884188116712</v>
+        <v>0.006072731509433949</v>
       </c>
       <c r="H9">
-        <v>0.003467251104552891</v>
+        <v>0.003372396435534007</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>45.80718034430605</v>
+        <v>45.97770599982827</v>
       </c>
       <c r="D10">
-        <v>1.180961506833205</v>
+        <v>1.144978612071379</v>
       </c>
       <c r="E10">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F10">
         <v>548.5188786062398</v>
       </c>
       <c r="G10">
-        <v>0.007543306023255525</v>
+        <v>0.006548491504936749</v>
       </c>
       <c r="H10">
-        <v>0.003404192942334718</v>
+        <v>0.003300470072720238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.3421855822195</v>
+        <v>46.36012580120931</v>
       </c>
       <c r="D11">
-        <v>1.153635174237222</v>
+        <v>1.120737909609238</v>
       </c>
       <c r="E11">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F11">
         <v>548.5188786062398</v>
       </c>
       <c r="G11">
-        <v>0.009076296866389999</v>
+        <v>0.007433260945360676</v>
       </c>
       <c r="H11">
-        <v>0.00332542313652404</v>
+        <v>0.003230594782322216</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.80446150982706</v>
+        <v>46.70240334902291</v>
       </c>
       <c r="D12">
-        <v>1.126286048554546</v>
+        <v>1.09647592410734</v>
       </c>
       <c r="E12">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F12">
         <v>548.5188786062398</v>
       </c>
       <c r="G12">
-        <v>0.0100331542102539</v>
+        <v>0.008197778008464374</v>
       </c>
       <c r="H12">
-        <v>0.00324658762826294</v>
+        <v>0.003160658142275358</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.12198978974158</v>
+        <v>47.15049263201205</v>
       </c>
       <c r="D13">
-        <v>1.102673613913888</v>
+        <v>1.072619622289702</v>
       </c>
       <c r="E13">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F13">
         <v>548.5188786062398</v>
       </c>
       <c r="G13">
-        <v>0.00993909808312785</v>
+        <v>0.009289305690639882</v>
       </c>
       <c r="H13">
-        <v>0.003178523357844327</v>
+        <v>0.003091890909975312</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.40397791103883</v>
+        <v>47.44013811212471</v>
       </c>
       <c r="D14">
-        <v>1.077521300865949</v>
+        <v>1.054288298354111</v>
       </c>
       <c r="E14">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F14">
         <v>548.5188786062398</v>
       </c>
       <c r="G14">
-        <v>0.009979984792079889</v>
+        <v>0.009140200701852752</v>
       </c>
       <c r="H14">
-        <v>0.003106020294818345</v>
+        <v>0.003039049760450865</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.68996567067696</v>
+        <v>47.6428616756283</v>
       </c>
       <c r="D15">
-        <v>1.061169956213217</v>
+        <v>1.038451591617368</v>
       </c>
       <c r="E15">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F15">
         <v>548.5188786062398</v>
       </c>
       <c r="G15">
-        <v>0.008423625552859137</v>
+        <v>0.008017099215118728</v>
       </c>
       <c r="H15">
-        <v>0.003058886555282858</v>
+        <v>0.002993399495822334</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>47.75110967323423</v>
+        <v>47.76446597118152</v>
       </c>
       <c r="D16">
-        <v>1.046996675856191</v>
+        <v>1.026099369420446</v>
       </c>
       <c r="E16">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F16">
         <v>548.5188786062398</v>
       </c>
       <c r="G16">
-        <v>0.005916551021294847</v>
+        <v>0.006637891388491335</v>
       </c>
       <c r="H16">
-        <v>0.003018031217761739</v>
+        <v>0.002957793468545738</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>47.74194582719742</v>
+        <v>47.82208011634424</v>
       </c>
       <c r="D17">
-        <v>1.03831285422129</v>
+        <v>1.015634948915862</v>
       </c>
       <c r="E17">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F17">
         <v>548.5188786062398</v>
       </c>
       <c r="G17">
-        <v>0.003874725234098974</v>
+        <v>0.00419742177707616</v>
       </c>
       <c r="H17">
-        <v>0.002992999576890316</v>
+        <v>0.002927629143780529</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>47.68498246648438</v>
+        <v>47.82937445991438</v>
       </c>
       <c r="D18">
-        <v>1.028054007586664</v>
+        <v>1.008111986062745</v>
       </c>
       <c r="E18">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F18">
         <v>548.5188786062398</v>
       </c>
       <c r="G18">
-        <v>0.001756278471534678</v>
+        <v>0.002432727173685478</v>
       </c>
       <c r="H18">
-        <v>0.002963427831233901</v>
+        <v>0.00290594374853111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>47.61066462394094</v>
+        <v>47.76784545531843</v>
       </c>
       <c r="D19">
-        <v>1.019861344275167</v>
+        <v>1.001058118727748</v>
       </c>
       <c r="E19">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F19">
         <v>548.5188786062398</v>
       </c>
       <c r="G19">
-        <v>-0.0004956315421001279</v>
+        <v>0.000781148623063288</v>
       </c>
       <c r="H19">
-        <v>0.002939811983924272</v>
+        <v>0.002885610549473375</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.55626670013388</v>
+        <v>47.73856375083511</v>
       </c>
       <c r="D20">
-        <v>1.017558393365945</v>
+        <v>0.997059698272729</v>
       </c>
       <c r="E20">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F20">
         <v>548.5188786062398</v>
       </c>
       <c r="G20">
-        <v>-0.001217768581877188</v>
+        <v>-0.0001618888771650617</v>
       </c>
       <c r="H20">
-        <v>0.002933173588696014</v>
+        <v>0.002874084860774205</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.53036771962686</v>
+        <v>47.67617605824287</v>
       </c>
       <c r="D21">
-        <v>1.018095905098867</v>
+        <v>0.9930246681029684</v>
       </c>
       <c r="E21">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F21">
         <v>548.5188786062398</v>
       </c>
       <c r="G21">
-        <v>-0.001322363172315999</v>
+        <v>-0.0009119003631335332</v>
       </c>
       <c r="H21">
-        <v>0.002934722998763191</v>
+        <v>0.002862453642358933</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.3835803190552</v>
+        <v>47.56900950530015</v>
       </c>
       <c r="D22">
-        <v>1.018179384364853</v>
+        <v>0.9895718427694515</v>
       </c>
       <c r="E22">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F22">
         <v>548.5188786062398</v>
       </c>
       <c r="G22">
-        <v>-0.001883763421432372</v>
+        <v>-0.001627280966338951</v>
       </c>
       <c r="H22">
-        <v>0.002934963632794408</v>
+        <v>0.002852500664583229</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>47.34634214666607</v>
+        <v>47.47084143074137</v>
       </c>
       <c r="D23">
-        <v>1.018112038557711</v>
+        <v>0.9931133486859842</v>
       </c>
       <c r="E23">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F23">
         <v>548.5188786062398</v>
       </c>
       <c r="G23">
-        <v>-0.001652015482967961</v>
+        <v>-0.001856275153606601</v>
       </c>
       <c r="H23">
-        <v>0.002934769504433709</v>
+        <v>0.00286270926950095</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>47.32519937931083</v>
+        <v>47.37121593778233</v>
       </c>
       <c r="D24">
-        <v>1.019619391585966</v>
+        <v>0.9940126724127782</v>
       </c>
       <c r="E24">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F24">
         <v>548.5188786062398</v>
       </c>
       <c r="G24">
-        <v>-0.00144417075514407</v>
+        <v>-0.002295923831579882</v>
       </c>
       <c r="H24">
-        <v>0.002939114540669609</v>
+        <v>0.002865301624514989</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>47.15315962888953</v>
+        <v>47.33388576890739</v>
       </c>
       <c r="D25">
-        <v>1.023465455232716</v>
+        <v>0.9962189373261651</v>
       </c>
       <c r="E25">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F25">
         <v>548.5188786062398</v>
       </c>
       <c r="G25">
-        <v>-0.002357550567108291</v>
+        <v>-0.002139314308346752</v>
       </c>
       <c r="H25">
-        <v>0.002950201051657715</v>
+        <v>0.002871661316514783</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>46.97546760490101</v>
+        <v>47.21312609356798</v>
       </c>
       <c r="D26">
-        <v>1.023525488360869</v>
+        <v>1.000251329455781</v>
       </c>
       <c r="E26">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F26">
         <v>548.5188786062398</v>
       </c>
       <c r="G26">
-        <v>-0.00255070446346366</v>
+        <v>-0.002224271323326077</v>
       </c>
       <c r="H26">
-        <v>0.002950374100779115</v>
+        <v>0.002883284930619848</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>46.87450357540573</v>
+        <v>47.08508700437819</v>
       </c>
       <c r="D27">
-        <v>1.028931188786891</v>
+        <v>1.002282697988906</v>
       </c>
       <c r="E27">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F27">
         <v>548.5188786062398</v>
       </c>
       <c r="G27">
-        <v>-0.002948991070377094</v>
+        <v>-0.002410965164769907</v>
       </c>
       <c r="H27">
-        <v>0.002965956359076412</v>
+        <v>0.002889140473229605</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.72137062936353</v>
+        <v>46.9561787480441</v>
       </c>
       <c r="D28">
-        <v>1.03649668317431</v>
+        <v>1.00692060477025</v>
       </c>
       <c r="E28">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F28">
         <v>548.5188786062398</v>
       </c>
       <c r="G28">
-        <v>-0.003773929687170652</v>
+        <v>-0.002593982435863929</v>
       </c>
       <c r="H28">
-        <v>0.002987764354044839</v>
+        <v>0.002902509519926643</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.70442128742054</v>
+        <v>46.8257489939011</v>
       </c>
       <c r="D29">
-        <v>1.04390827698502</v>
+        <v>1.010130431688278</v>
       </c>
       <c r="E29">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F29">
         <v>548.5188786062398</v>
       </c>
       <c r="G29">
-        <v>-0.002804614634181224</v>
+        <v>-0.003175854843789328</v>
       </c>
       <c r="H29">
-        <v>0.00300912872129634</v>
+        <v>0.002911762040078437</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.58570243234475</v>
+        <v>46.64735706150051</v>
       </c>
       <c r="D30">
-        <v>1.050931199107058</v>
+        <v>1.017896359241564</v>
       </c>
       <c r="E30">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F30">
         <v>548.5188786062398</v>
       </c>
       <c r="G30">
-        <v>-0.002436032328476623</v>
+        <v>-0.003536056450421698</v>
       </c>
       <c r="H30">
-        <v>0.003029372718906827</v>
+        <v>0.002934147795765318</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.31817336567624</v>
+        <v>46.46614299973361</v>
       </c>
       <c r="D31">
-        <v>1.054815361931616</v>
+        <v>1.022079806348967</v>
       </c>
       <c r="E31">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F31">
         <v>548.5188786062398</v>
       </c>
       <c r="G31">
-        <v>-0.003477063810809344</v>
+        <v>-0.003868400029028596</v>
       </c>
       <c r="H31">
-        <v>0.003040569053078375</v>
+        <v>0.002946206834976376</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.059521427851</v>
+        <v>46.24328844728615</v>
       </c>
       <c r="D32">
-        <v>1.060549766293104</v>
+        <v>1.029216766853669</v>
       </c>
       <c r="E32">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F32">
         <v>548.5188786062398</v>
       </c>
       <c r="G32">
-        <v>-0.004136557509453275</v>
+        <v>-0.00445556437973722</v>
       </c>
       <c r="H32">
-        <v>0.003057098820342523</v>
+        <v>0.002966779555119455</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.83928409565557</v>
+        <v>45.94293974810767</v>
       </c>
       <c r="D33">
-        <v>1.076249698118705</v>
+        <v>1.0377264039086</v>
       </c>
       <c r="E33">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F33">
         <v>548.5188786062398</v>
       </c>
       <c r="G33">
-        <v>-0.005407107448531035</v>
+        <v>-0.005517557786208949</v>
       </c>
       <c r="H33">
-        <v>0.003102354823020514</v>
+        <v>0.002991309098408217</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.51625661385304</v>
+        <v>45.62010216731768</v>
       </c>
       <c r="D34">
-        <v>1.085193409659578</v>
+        <v>1.049881820336171</v>
       </c>
       <c r="E34">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F34">
         <v>548.5188786062398</v>
       </c>
       <c r="G34">
-        <v>-0.00668403636557322</v>
+        <v>-0.006420343088642655</v>
       </c>
       <c r="H34">
-        <v>0.003128135612258394</v>
+        <v>0.003026347821156121</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.24686770951401</v>
+        <v>45.33221067087528</v>
       </c>
       <c r="D35">
-        <v>1.097546878121669</v>
+        <v>1.061266545801611</v>
       </c>
       <c r="E35">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F35">
         <v>548.5188786062398</v>
       </c>
       <c r="G35">
-        <v>-0.006695660351013944</v>
+        <v>-0.007087077055364599</v>
       </c>
       <c r="H35">
-        <v>0.003163745231969686</v>
+        <v>0.003059164980611043</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.99473001731478</v>
+        <v>45.03866349211464</v>
       </c>
       <c r="D36">
-        <v>1.103891034083275</v>
+        <v>1.073496623209922</v>
       </c>
       <c r="E36">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F36">
         <v>548.5188786062398</v>
       </c>
       <c r="G36">
-        <v>-0.006654946315851396</v>
+        <v>-0.007528905969821942</v>
       </c>
       <c r="H36">
-        <v>0.003182032645085701</v>
+        <v>0.003094418918149804</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.75162373481503</v>
+        <v>44.72799452172289</v>
       </c>
       <c r="D37">
-        <v>1.118034434128219</v>
+        <v>1.085360598100733</v>
       </c>
       <c r="E37">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F37">
         <v>548.5188786062398</v>
       </c>
       <c r="G37">
-        <v>-0.006797877255253404</v>
+        <v>-0.007593407664904861</v>
       </c>
       <c r="H37">
-        <v>0.003222801850800731</v>
+        <v>0.003128617543047948</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.60889896197515</v>
+        <v>44.45084691020057</v>
       </c>
       <c r="D38">
-        <v>1.133307648130514</v>
+        <v>1.0977993768377</v>
       </c>
       <c r="E38">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F38">
         <v>548.5188786062398</v>
       </c>
       <c r="G38">
-        <v>-0.005670985324236799</v>
+        <v>-0.007307845356981968</v>
       </c>
       <c r="H38">
-        <v>0.003266827813554421</v>
+        <v>0.003164473074784281</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>44.59651326346009</v>
+        <v>44.2627097823426</v>
       </c>
       <c r="D39">
-        <v>1.147225364730464</v>
+        <v>1.113885166856707</v>
       </c>
       <c r="E39">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F39">
         <v>548.5188786062398</v>
       </c>
       <c r="G39">
-        <v>-0.004064715287836984</v>
+        <v>-0.00668438055332925</v>
       </c>
       <c r="H39">
-        <v>0.003306946473094826</v>
+        <v>0.003210841337033082</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>44.25351665004739</v>
+        <v>44.09419130174494</v>
       </c>
       <c r="D40">
-        <v>1.16533226162151</v>
+        <v>1.126558158806439</v>
       </c>
       <c r="E40">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F40">
         <v>548.5188786062398</v>
       </c>
       <c r="G40">
-        <v>-0.004632583545421199</v>
+        <v>-0.00590295118981059</v>
       </c>
       <c r="H40">
-        <v>0.003359140698094902</v>
+        <v>0.003247372002515337</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>44.27926825492389</v>
+        <v>43.87939466305427</v>
       </c>
       <c r="D41">
-        <v>1.176679259802761</v>
+        <v>1.13890427516654</v>
       </c>
       <c r="E41">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F41">
         <v>548.5188786062398</v>
       </c>
       <c r="G41">
-        <v>-0.002952221749319595</v>
+        <v>-0.00530374911667888</v>
       </c>
       <c r="H41">
-        <v>0.003391849106372222</v>
+        <v>0.003282960429348147</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>44.1412699425432</v>
+        <v>43.74066159122604</v>
       </c>
       <c r="D42">
-        <v>1.191639497647665</v>
+        <v>1.149162731384486</v>
       </c>
       <c r="E42">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F42">
         <v>548.5188786062398</v>
       </c>
       <c r="G42">
-        <v>-0.002922681371449709</v>
+        <v>-0.004438658243590776</v>
       </c>
       <c r="H42">
-        <v>0.003434972896430236</v>
+        <v>0.003312531049604878</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.04744227905266</v>
+        <v>43.6603632082781</v>
       </c>
       <c r="D43">
-        <v>1.207339009053154</v>
+        <v>1.160658922359673</v>
       </c>
       <c r="E43">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F43">
         <v>548.5188786062398</v>
       </c>
       <c r="G43">
-        <v>-0.003431693652546431</v>
+        <v>-0.003764666087903113</v>
       </c>
       <c r="H43">
-        <v>0.003480227687221836</v>
+        <v>0.003345669515130656</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.92318272619313</v>
+        <v>43.68441772769327</v>
       </c>
       <c r="D44">
-        <v>1.226474368015323</v>
+        <v>1.17423421143295</v>
       </c>
       <c r="E44">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F44">
         <v>548.5188786062398</v>
       </c>
       <c r="G44">
-        <v>-0.002064587024089093</v>
+        <v>-0.002561084837822936</v>
       </c>
       <c r="H44">
-        <v>0.00353538651632096</v>
+        <v>0.003384801106622851</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.98058288401128</v>
+        <v>43.70135025726602</v>
       </c>
       <c r="D45">
-        <v>1.238635035256059</v>
+        <v>1.182383044174047</v>
       </c>
       <c r="E45">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F45">
         <v>548.5188786062398</v>
       </c>
       <c r="G45">
-        <v>-0.001866783568203845</v>
+        <v>-0.001112777536176557</v>
       </c>
       <c r="H45">
-        <v>0.003570440374855268</v>
+        <v>0.003408290609663382</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.07312888680827</v>
+        <v>43.63295401467283</v>
       </c>
       <c r="D46">
-        <v>1.248857656522163</v>
+        <v>1.193032584633732</v>
       </c>
       <c r="E46">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F46">
         <v>548.5188786062398</v>
       </c>
       <c r="G46">
-        <v>-0.0004258815983432918</v>
+        <v>-0.0006731723534575629</v>
       </c>
       <c r="H46">
-        <v>0.003599907698696795</v>
+        <v>0.003438988553891201</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.27631991184952</v>
+        <v>43.5874903112861</v>
       </c>
       <c r="D47">
-        <v>1.276671732367588</v>
+        <v>1.20227210180126</v>
       </c>
       <c r="E47">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F47">
         <v>548.5188786062398</v>
       </c>
       <c r="G47">
-        <v>0.001430485204980369</v>
+        <v>-0.0004554556061999726</v>
       </c>
       <c r="H47">
-        <v>0.003680083453912102</v>
+        <v>0.003465622020731812</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.2586043578764</v>
+        <v>43.59696931375472</v>
       </c>
       <c r="D48">
-        <v>1.296705383612115</v>
+        <v>1.212367010646285</v>
       </c>
       <c r="E48">
-        <v>332.7305545178582</v>
+        <v>363.4025202596894</v>
       </c>
       <c r="F48">
         <v>548.5188786062398</v>
       </c>
       <c r="G48">
-        <v>0.002096385198020423</v>
+        <v>-0.000546552587115956</v>
       </c>
       <c r="H48">
-        <v>0.003737831664824319</v>
+        <v>0.003494721205798306</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>43.86360468575906</v>
+        <v>45.37101401166873</v>
       </c>
       <c r="D2">
-        <v>1.324737500215837</v>
+        <v>1.096152232247768</v>
       </c>
       <c r="E2">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F2">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.003818635935707783</v>
+        <v>0.001579862540460145</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>44.27461023442892</v>
+        <v>45.56498007029075</v>
       </c>
       <c r="D3">
-        <v>1.267579754141813</v>
+        <v>1.066792970688764</v>
       </c>
       <c r="E3">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F3">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.003653875276991043</v>
+        <v>0.00153754761723317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>44.45161144623105</v>
+        <v>45.52573087400429</v>
       </c>
       <c r="D4">
-        <v>1.258587768829978</v>
+        <v>1.068496584423777</v>
       </c>
       <c r="E4">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F4">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.003627955335689816</v>
+        <v>0.001540003002027526</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.69256668000024</v>
+        <v>45.61736099779469</v>
       </c>
       <c r="D5">
-        <v>1.247277858123634</v>
+        <v>1.069998263501116</v>
       </c>
       <c r="E5">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F5">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.003595353834301159</v>
+        <v>0.0015421673423922</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>44.92994735903839</v>
+        <v>45.72388771745032</v>
       </c>
       <c r="D6">
-        <v>1.233343745967549</v>
+        <v>1.069955422132732</v>
       </c>
       <c r="E6">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F6">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.006664641707995811</v>
+        <v>0.002205460661134939</v>
       </c>
       <c r="H6">
-        <v>0.003555187913578949</v>
+        <v>0.001542105595974959</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>45.1708040499516</v>
+        <v>45.83502330361641</v>
       </c>
       <c r="D7">
-        <v>1.213093578896361</v>
+        <v>1.069202344263049</v>
       </c>
       <c r="E7">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F7">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.005601211347016744</v>
+        <v>0.001687770208285366</v>
       </c>
       <c r="H7">
-        <v>0.003496815582706209</v>
+        <v>0.001541020199730386</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.39075886766861</v>
+        <v>45.87851039862147</v>
       </c>
       <c r="D8">
-        <v>1.19286192732449</v>
+        <v>1.067369583389935</v>
       </c>
       <c r="E8">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F8">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.005869671383984754</v>
+        <v>0.002204872028857397</v>
       </c>
       <c r="H8">
-        <v>0.003438496623879666</v>
+        <v>0.001538378677719236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.66420372150967</v>
+        <v>45.97365297374249</v>
       </c>
       <c r="D9">
-        <v>1.1699308598577</v>
+        <v>1.06449120616428</v>
       </c>
       <c r="E9">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F9">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.006072731509433949</v>
+        <v>0.002226824849673736</v>
       </c>
       <c r="H9">
-        <v>0.003372396435534007</v>
+        <v>0.001534230129531909</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>45.97770599982827</v>
+        <v>46.01526589726672</v>
       </c>
       <c r="D10">
-        <v>1.144978612071379</v>
+        <v>1.06170626381429</v>
       </c>
       <c r="E10">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F10">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.006548491504936749</v>
+        <v>0.001821113623852533</v>
       </c>
       <c r="H10">
-        <v>0.003300470072720238</v>
+        <v>0.001530216247183589</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.36012580120931</v>
+        <v>46.10174039185517</v>
       </c>
       <c r="D11">
-        <v>1.120737909609238</v>
+        <v>1.057470913823782</v>
       </c>
       <c r="E11">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F11">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.007433260945360676</v>
+        <v>0.001666981801492229</v>
       </c>
       <c r="H11">
-        <v>0.003230594782322216</v>
+        <v>0.001524111920978806</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.70240334902291</v>
+        <v>46.23276684100756</v>
       </c>
       <c r="D12">
-        <v>1.09647592410734</v>
+        <v>1.053161126288165</v>
       </c>
       <c r="E12">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F12">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.008197778008464374</v>
+        <v>0.002214102764913051</v>
       </c>
       <c r="H12">
-        <v>0.003160658142275358</v>
+        <v>0.001517900309411952</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.15049263201205</v>
+        <v>46.29604250970809</v>
       </c>
       <c r="D13">
-        <v>1.072619622289702</v>
+        <v>1.047990631097371</v>
       </c>
       <c r="E13">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F13">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.009289305690639882</v>
+        <v>0.00201493459978499</v>
       </c>
       <c r="H13">
-        <v>0.003091890909975312</v>
+        <v>0.001510448176918626</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.44013811212471</v>
+        <v>46.35708078359458</v>
       </c>
       <c r="D14">
-        <v>1.054288298354111</v>
+        <v>1.041158909814607</v>
       </c>
       <c r="E14">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F14">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.009140200701852752</v>
+        <v>0.002136343039549127</v>
       </c>
       <c r="H14">
-        <v>0.003039049760450865</v>
+        <v>0.001500601752102822</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.6428616756283</v>
+        <v>46.42640967783011</v>
       </c>
       <c r="D15">
-        <v>1.038451591617368</v>
+        <v>1.034891040953336</v>
       </c>
       <c r="E15">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F15">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.008017099215118728</v>
+        <v>0.002029183037343385</v>
       </c>
       <c r="H15">
-        <v>0.002993399495822334</v>
+        <v>0.001491567996634266</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>47.76446597118152</v>
+        <v>46.48300014620272</v>
       </c>
       <c r="D16">
-        <v>1.026099369420446</v>
+        <v>1.028936464442519</v>
       </c>
       <c r="E16">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F16">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.006637891388491335</v>
+        <v>0.001563958157469747</v>
       </c>
       <c r="H16">
-        <v>0.002957793468545738</v>
+        <v>0.001482985783236358</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>47.82208011634424</v>
+        <v>46.49345265393914</v>
       </c>
       <c r="D17">
-        <v>1.015634948915862</v>
+        <v>1.019884433026735</v>
       </c>
       <c r="E17">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F17">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.00419742177707616</v>
+        <v>0.001233813401444062</v>
       </c>
       <c r="H17">
-        <v>0.002927629143780529</v>
+        <v>0.001469939269323286</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>47.82937445991438</v>
+        <v>46.53395736311613</v>
       </c>
       <c r="D18">
-        <v>1.008111986062745</v>
+        <v>1.011730884662142</v>
       </c>
       <c r="E18">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F18">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.002432727173685478</v>
+        <v>0.00110547862200967</v>
       </c>
       <c r="H18">
-        <v>0.00290594374853111</v>
+        <v>0.001458187721268107</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>47.76784545531843</v>
+        <v>46.56153107367899</v>
       </c>
       <c r="D19">
-        <v>1.001058118727748</v>
+        <v>1.004686866926551</v>
       </c>
       <c r="E19">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F19">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.000781148623063288</v>
+        <v>0.000844508724055526</v>
       </c>
       <c r="H19">
-        <v>0.002885610549473375</v>
+        <v>0.001448035317772129</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.73856375083511</v>
+        <v>46.57282372859458</v>
       </c>
       <c r="D20">
-        <v>0.997059698272729</v>
+        <v>0.9950379200072206</v>
       </c>
       <c r="E20">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F20">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>-0.0001618888771650617</v>
+        <v>0.0005613973899491143</v>
       </c>
       <c r="H20">
-        <v>0.002874084860774205</v>
+        <v>0.001434128481345331</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.67617605824287</v>
+        <v>46.58417197748771</v>
       </c>
       <c r="D21">
-        <v>0.9930246681029684</v>
+        <v>0.9858505369709146</v>
       </c>
       <c r="E21">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F21">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>-0.0009119003631335332</v>
+        <v>0.0005669957721786024</v>
       </c>
       <c r="H21">
-        <v>0.002862453642358933</v>
+        <v>0.00142088688781762</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.56900950530015</v>
+        <v>46.63661575616555</v>
       </c>
       <c r="D22">
-        <v>0.9895718427694515</v>
+        <v>0.976369243452981</v>
       </c>
       <c r="E22">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F22">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>-0.001627280966338951</v>
+        <v>0.0006416149565588558</v>
       </c>
       <c r="H22">
-        <v>0.002852500664583229</v>
+        <v>0.001407221686923603</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>47.47084143074137</v>
+        <v>46.6535384269969</v>
       </c>
       <c r="D23">
-        <v>0.9931133486859842</v>
+        <v>0.9668317679361234</v>
       </c>
       <c r="E23">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F23">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>-0.001856275153606601</v>
+        <v>0.0005750459582369416</v>
       </c>
       <c r="H23">
-        <v>0.00286270926950095</v>
+        <v>0.001393475512025303</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>47.37121593778233</v>
+        <v>46.67417074353486</v>
       </c>
       <c r="D24">
-        <v>0.9940126724127782</v>
+        <v>0.9574324095828458</v>
       </c>
       <c r="E24">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F24">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>-0.002295923831579882</v>
+        <v>0.000633418843376754</v>
       </c>
       <c r="H24">
-        <v>0.002865301624514989</v>
+        <v>0.001379928402664176</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>47.33388576890739</v>
+        <v>46.73911293085737</v>
       </c>
       <c r="D25">
-        <v>0.9962189373261651</v>
+        <v>0.9488336637480947</v>
       </c>
       <c r="E25">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F25">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>-0.002139314308346752</v>
+        <v>0.0009683809585603331</v>
       </c>
       <c r="H25">
-        <v>0.002871661316514783</v>
+        <v>0.001367535200297198</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>47.21312609356798</v>
+        <v>46.79492781459813</v>
       </c>
       <c r="D26">
-        <v>1.000251329455781</v>
+        <v>0.94020789344413</v>
       </c>
       <c r="E26">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F26">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>-0.002224271323326077</v>
+        <v>0.000989450365203659</v>
       </c>
       <c r="H26">
-        <v>0.002883284930619848</v>
+        <v>0.00135510304809704</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>47.08508700437819</v>
+        <v>46.80556671314685</v>
       </c>
       <c r="D27">
-        <v>1.002282697988906</v>
+        <v>0.9324523465302764</v>
       </c>
       <c r="E27">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F27">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>-0.002410965164769907</v>
+        <v>0.0009501767884371847</v>
       </c>
       <c r="H27">
-        <v>0.002889140473229605</v>
+        <v>0.001343925131663979</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.9561787480441</v>
+        <v>46.78958796570105</v>
       </c>
       <c r="D28">
-        <v>1.00692060477025</v>
+        <v>0.9252458020118844</v>
       </c>
       <c r="E28">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F28">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>-0.002593982435863929</v>
+        <v>0.000721357638538711</v>
       </c>
       <c r="H28">
-        <v>0.002902509519926643</v>
+        <v>0.001333538481529245</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.8257489939011</v>
+        <v>46.73361921238037</v>
       </c>
       <c r="D29">
-        <v>1.010130431688278</v>
+        <v>0.9189686001361794</v>
       </c>
       <c r="E29">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F29">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>-0.003175854843789328</v>
+        <v>-3.433574048123944E-05</v>
       </c>
       <c r="H29">
-        <v>0.002911762040078437</v>
+        <v>0.001324491274571506</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.64735706150051</v>
+        <v>46.67126773466305</v>
       </c>
       <c r="D30">
-        <v>1.017896359241564</v>
+        <v>0.913746397761086</v>
       </c>
       <c r="E30">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F30">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.003536056450421698</v>
+        <v>-0.0007728754995942833</v>
       </c>
       <c r="H30">
-        <v>0.002934147795765318</v>
+        <v>0.001316964617535746</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.46614299973361</v>
+        <v>46.58003616683131</v>
       </c>
       <c r="D31">
-        <v>1.022079806348967</v>
+        <v>0.9084145063416942</v>
       </c>
       <c r="E31">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F31">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.003868400029028596</v>
+        <v>-0.001409565914472122</v>
       </c>
       <c r="H31">
-        <v>0.002946206834976376</v>
+        <v>0.001309279867849086</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.24328844728615</v>
+        <v>46.473565279543</v>
       </c>
       <c r="D32">
-        <v>1.029216766853669</v>
+        <v>0.9042855806778977</v>
       </c>
       <c r="E32">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F32">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.00445556437973722</v>
+        <v>-0.001975141788487811</v>
       </c>
       <c r="H32">
-        <v>0.002966779555119455</v>
+        <v>0.001303328928922291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.94293974810767</v>
+        <v>46.34762345132844</v>
       </c>
       <c r="D33">
-        <v>1.0377264039086</v>
+        <v>0.8995906033354628</v>
       </c>
       <c r="E33">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F33">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.005517557786208949</v>
+        <v>-0.002412473506574564</v>
       </c>
       <c r="H33">
-        <v>0.002991309098408217</v>
+        <v>0.001296562150902406</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.62010216731768</v>
+        <v>46.21853849116404</v>
       </c>
       <c r="D34">
-        <v>1.049881820336171</v>
+        <v>0.8968694824726992</v>
       </c>
       <c r="E34">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F34">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.006420343088642655</v>
+        <v>-0.002829557771868796</v>
       </c>
       <c r="H34">
-        <v>0.003026347821156121</v>
+        <v>0.001292640253201819</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.33221067087528</v>
+        <v>46.04053253385484</v>
       </c>
       <c r="D35">
-        <v>1.061266545801611</v>
+        <v>0.8932603197160336</v>
       </c>
       <c r="E35">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F35">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.007087077055364599</v>
+        <v>-0.003371897706102978</v>
       </c>
       <c r="H35">
-        <v>0.003059164980611043</v>
+        <v>0.001287438438276909</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.03866349211464</v>
+        <v>45.89300765385318</v>
       </c>
       <c r="D36">
-        <v>1.073496623209922</v>
+        <v>0.8907633038029192</v>
       </c>
       <c r="E36">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F36">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.007528905969821942</v>
+        <v>-0.003628485160561379</v>
       </c>
       <c r="H36">
-        <v>0.003094418918149804</v>
+        <v>0.001283839538609504</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.72799452172289</v>
+        <v>45.74367029551762</v>
       </c>
       <c r="D37">
-        <v>1.085360598100733</v>
+        <v>0.888756014258419</v>
       </c>
       <c r="E37">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F37">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.007593407664904861</v>
+        <v>-0.003774707223817631</v>
       </c>
       <c r="H37">
-        <v>0.003128617543047948</v>
+        <v>0.001280946471874868</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.45084691020057</v>
+        <v>45.59455134801193</v>
       </c>
       <c r="D38">
-        <v>1.0977993768377</v>
+        <v>0.887113811036831</v>
       </c>
       <c r="E38">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F38">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.007307845356981968</v>
+        <v>-0.003899919644700667</v>
       </c>
       <c r="H38">
-        <v>0.003164473074784281</v>
+        <v>0.001278579596839372</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>44.2627097823426</v>
+        <v>45.41165713861927</v>
       </c>
       <c r="D39">
-        <v>1.113885166856707</v>
+        <v>0.8851676198701611</v>
       </c>
       <c r="E39">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F39">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.00668438055332925</v>
+        <v>-0.003930471220222298</v>
       </c>
       <c r="H39">
-        <v>0.003210841337033082</v>
+        <v>0.001275774589988735</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>44.09419130174494</v>
+        <v>45.2501539819442</v>
       </c>
       <c r="D40">
-        <v>1.126558158806439</v>
+        <v>0.8840401356123253</v>
       </c>
       <c r="E40">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F40">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.00590295118981059</v>
+        <v>-0.004017835449431129</v>
       </c>
       <c r="H40">
-        <v>0.003247372002515337</v>
+        <v>0.001274149569219256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.87939466305427</v>
+        <v>45.12737281001666</v>
       </c>
       <c r="D41">
-        <v>1.13890427516654</v>
+        <v>0.8829409867168978</v>
       </c>
       <c r="E41">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F41">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.00530374911667888</v>
+        <v>-0.003851859284380988</v>
       </c>
       <c r="H41">
-        <v>0.003282960429348147</v>
+        <v>0.001272565387647402</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.74066159122604</v>
+        <v>44.9977828859454</v>
       </c>
       <c r="D42">
-        <v>1.149162731384486</v>
+        <v>0.8816701841404998</v>
       </c>
       <c r="E42">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F42">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.004438658243590776</v>
+        <v>-0.003729802887915845</v>
       </c>
       <c r="H42">
-        <v>0.003312531049604878</v>
+        <v>0.001270733805018906</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.6603632082781</v>
+        <v>44.8689771129505</v>
       </c>
       <c r="D43">
-        <v>1.160658922359673</v>
+        <v>0.8810268099188712</v>
       </c>
       <c r="E43">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F43">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.003764666087903113</v>
+        <v>-0.003391750160429785</v>
       </c>
       <c r="H43">
-        <v>0.003345669515130656</v>
+        <v>0.001269806522473339</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.68441772769327</v>
+        <v>44.73383613077904</v>
       </c>
       <c r="D44">
-        <v>1.17423421143295</v>
+        <v>0.8803385791584691</v>
       </c>
       <c r="E44">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F44">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.002561084837822936</v>
+        <v>-0.003226986569782264</v>
       </c>
       <c r="H44">
-        <v>0.003384801106622851</v>
+        <v>0.001268814589085289</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.70135025726602</v>
+        <v>44.57379385170189</v>
       </c>
       <c r="D45">
-        <v>1.182383044174047</v>
+        <v>0.8802817009540372</v>
       </c>
       <c r="E45">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F45">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G45">
-        <v>-0.001112777536176557</v>
+        <v>-0.003459868489467288</v>
       </c>
       <c r="H45">
-        <v>0.003408290609663382</v>
+        <v>0.001268732611653773</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.63295401467283</v>
+        <v>44.42550012553276</v>
       </c>
       <c r="D46">
-        <v>1.193032584633732</v>
+        <v>0.8798475203284815</v>
       </c>
       <c r="E46">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F46">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G46">
-        <v>-0.0006731723534575629</v>
+        <v>-0.003576767252579005</v>
       </c>
       <c r="H46">
-        <v>0.003438988553891201</v>
+        <v>0.001268106835702286</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.5874903112861</v>
+        <v>44.23110086801538</v>
       </c>
       <c r="D47">
-        <v>1.20227210180126</v>
+        <v>0.879749068752547</v>
       </c>
       <c r="E47">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F47">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G47">
-        <v>-0.0004554556061999726</v>
+        <v>-0.003986726530844508</v>
       </c>
       <c r="H47">
-        <v>0.003465622020731812</v>
+        <v>0.001267964939392364</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.59696931375472</v>
+        <v>44.05705579206011</v>
       </c>
       <c r="D48">
-        <v>1.212367010646285</v>
+        <v>0.8795552597935522</v>
       </c>
       <c r="E48">
-        <v>363.4025202596894</v>
+        <v>273.8855996928266</v>
       </c>
       <c r="F48">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G48">
-        <v>-0.000546552587115956</v>
+        <v>-0.004229877116993297</v>
       </c>
       <c r="H48">
-        <v>0.003494721205798306</v>
+        <v>0.001267685606371536</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>45.39062456446414</v>
+        <v>45.38325272936093</v>
       </c>
       <c r="D2">
-        <v>1.095624172742381</v>
+        <v>1.095595212297436</v>
       </c>
       <c r="E2">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F2">
         <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.001579101458735225</v>
+        <v>0.001579059718618499</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>45.56019448834596</v>
+        <v>45.58105452145617</v>
       </c>
       <c r="D3">
-        <v>1.06675291637501</v>
+        <v>1.066381762271983</v>
       </c>
       <c r="E3">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F3">
         <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.001537489887742665</v>
+        <v>0.00153695495067201</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>45.51245788195582</v>
+        <v>45.62607868253728</v>
       </c>
       <c r="D4">
-        <v>1.068862852473449</v>
+        <v>1.070083785169974</v>
       </c>
       <c r="E4">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F4">
         <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.001540530896926082</v>
+        <v>0.001542290603082687</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>45.62768354839196</v>
+        <v>45.69857876461639</v>
       </c>
       <c r="D5">
-        <v>1.070024387753312</v>
+        <v>1.069515057554365</v>
       </c>
       <c r="E5">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F5">
         <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.00154220499476039</v>
+        <v>0.001541470907214547</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.74944868772068</v>
+        <v>45.82167881037653</v>
       </c>
       <c r="D6">
-        <v>1.070230981944184</v>
+        <v>1.069953108757725</v>
       </c>
       <c r="E6">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F6">
         <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.004216414811107993</v>
+        <v>0.004678829885824775</v>
       </c>
       <c r="H6">
-        <v>0.001542502754883148</v>
+        <v>0.001542102261753298</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>45.85133665619022</v>
+        <v>45.93694583917242</v>
       </c>
       <c r="D7">
-        <v>1.068939923274984</v>
+        <v>1.068889101077018</v>
       </c>
       <c r="E7">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F7">
         <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.003543064989178069</v>
+        <v>0.004044675147101539</v>
       </c>
       <c r="H7">
-        <v>0.001540641977548578</v>
+        <v>0.001540568728519448</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.92364321176533</v>
+        <v>45.96602423955001</v>
       </c>
       <c r="D8">
-        <v>1.067055564052749</v>
+        <v>1.066859489322736</v>
       </c>
       <c r="E8">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F8">
         <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.004487307293188714</v>
+        <v>0.004292807512097064</v>
       </c>
       <c r="H8">
-        <v>0.001537926087856984</v>
+        <v>0.001537643489225183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.97122316492287</v>
+        <v>46.05142775475812</v>
       </c>
       <c r="D9">
-        <v>1.064551859399135</v>
+        <v>1.064533932806938</v>
       </c>
       <c r="E9">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F9">
         <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.00401432788164704</v>
+        <v>0.004383647108161215</v>
       </c>
       <c r="H9">
-        <v>0.001534317547840138</v>
+        <v>0.001534291710597229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>46.06525093424142</v>
+        <v>46.1318655110929</v>
       </c>
       <c r="D10">
-        <v>1.061184115556376</v>
+        <v>1.061492721545596</v>
       </c>
       <c r="E10">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F10">
         <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.003631541738577582</v>
+        <v>0.00391265945135304</v>
       </c>
       <c r="H10">
-        <v>0.001529463685222781</v>
+        <v>0.001529908472933636</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.12708488661445</v>
+        <v>46.22820254499241</v>
       </c>
       <c r="D11">
-        <v>1.057359745236597</v>
+        <v>1.05768304323378</v>
       </c>
       <c r="E11">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F11">
         <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.00339997483337573</v>
+        <v>0.003605084808838255</v>
       </c>
       <c r="H11">
-        <v>0.001523951695891995</v>
+        <v>0.001524417658903454</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.23042704886601</v>
+        <v>46.31292788447281</v>
       </c>
       <c r="D12">
-        <v>1.052767086105628</v>
+        <v>1.053116024406122</v>
       </c>
       <c r="E12">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F12">
         <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.003250839899594915</v>
+        <v>0.003720631279634201</v>
       </c>
       <c r="H12">
-        <v>0.001517332387087377</v>
+        <v>0.001517835304961066</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>46.26997600945548</v>
+        <v>46.39996230192219</v>
       </c>
       <c r="D13">
-        <v>1.046779172236758</v>
+        <v>1.047849215834653</v>
       </c>
       <c r="E13">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F13">
         <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.00318621002575874</v>
+        <v>0.00344806843192571</v>
       </c>
       <c r="H13">
-        <v>0.001508702125214415</v>
+        <v>0.001510244357896373</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>46.33049536589309</v>
+        <v>46.44770432259302</v>
       </c>
       <c r="D14">
-        <v>1.041426917840818</v>
+        <v>1.042713449718875</v>
       </c>
       <c r="E14">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F14">
         <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.002808910177840929</v>
+        <v>0.003065712488735128</v>
       </c>
       <c r="H14">
-        <v>0.00150098802677225</v>
+        <v>0.001502842279732244</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.39533262953034</v>
+        <v>46.51375940858654</v>
       </c>
       <c r="D15">
-        <v>1.034243989572094</v>
+        <v>1.035131880622361</v>
       </c>
       <c r="E15">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F15">
         <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.002626062677725338</v>
+        <v>0.002563856492624161</v>
       </c>
       <c r="H15">
-        <v>0.001490635414271248</v>
+        <v>0.001491915114087623</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.44377759570052</v>
+        <v>46.56132524429148</v>
       </c>
       <c r="D16">
-        <v>1.027424018262502</v>
+        <v>1.028555730064812</v>
       </c>
       <c r="E16">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F16">
         <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.002221569414530222</v>
+        <v>0.002192543523021273</v>
       </c>
       <c r="H16">
-        <v>0.00148080592445947</v>
+        <v>0.001482437038305217</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.48101676904427</v>
+        <v>46.60311870386624</v>
       </c>
       <c r="D17">
-        <v>1.019892407490939</v>
+        <v>1.020021211932021</v>
       </c>
       <c r="E17">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F17">
         <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.002147265998273218</v>
+        <v>0.001823927362183131</v>
       </c>
       <c r="H17">
-        <v>0.001469950762760881</v>
+        <v>0.001470136406055237</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.51467656269597</v>
+        <v>46.62237950929052</v>
       </c>
       <c r="D18">
-        <v>1.011370630174981</v>
+        <v>1.011616854787925</v>
       </c>
       <c r="E18">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F18">
         <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.001956747105541501</v>
+        <v>0.001712777712853253</v>
       </c>
       <c r="H18">
-        <v>0.001457668493598305</v>
+        <v>0.001458023372264868</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.5472549150505</v>
+        <v>46.63841958381228</v>
       </c>
       <c r="D19">
-        <v>1.003044416187271</v>
+        <v>1.00388337571827</v>
       </c>
       <c r="E19">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F19">
         <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.001714422341630462</v>
+        <v>0.001516854522918765</v>
       </c>
       <c r="H19">
-        <v>0.001445668085994277</v>
+        <v>0.00144687726177935</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>46.58587815519085</v>
+        <v>46.66373484815622</v>
       </c>
       <c r="D20">
-        <v>0.9942975426287134</v>
+        <v>0.9941025516341359</v>
       </c>
       <c r="E20">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F20">
         <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>0.00162625713760427</v>
+        <v>0.001413466950869724</v>
       </c>
       <c r="H20">
-        <v>0.001433061390067591</v>
+        <v>0.001432780353402247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>46.6135385691792</v>
+        <v>46.69179067987149</v>
       </c>
       <c r="D21">
-        <v>0.9856960342284974</v>
+        <v>0.9855594057431561</v>
       </c>
       <c r="E21">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F21">
         <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>0.001661908774090914</v>
+        <v>0.001414519724646945</v>
       </c>
       <c r="H21">
-        <v>0.001420664206069627</v>
+        <v>0.001420467286134968</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>46.64357490277973</v>
+        <v>46.72174875664954</v>
       </c>
       <c r="D22">
-        <v>0.9758413816113068</v>
+        <v>0.9766136197426242</v>
       </c>
       <c r="E22">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F22">
         <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>0.0017003976581909</v>
+        <v>0.001441847881297687</v>
       </c>
       <c r="H22">
-        <v>0.001406460890087483</v>
+        <v>0.001407573901638335</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>46.66964020419121</v>
+        <v>46.75645613225354</v>
       </c>
       <c r="D23">
-        <v>0.9667532922623425</v>
+        <v>0.9671244814281914</v>
       </c>
       <c r="E23">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F23">
         <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>0.001715315412545726</v>
+        <v>0.001417407650731395</v>
       </c>
       <c r="H23">
-        <v>0.001393362406588215</v>
+        <v>0.001393897394194222</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>46.7039787377172</v>
+        <v>46.78747995643064</v>
       </c>
       <c r="D24">
-        <v>0.957433025076305</v>
+        <v>0.9581065838581857</v>
       </c>
       <c r="E24">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F24">
         <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>0.001381912191249945</v>
+        <v>0.001062990005045128</v>
       </c>
       <c r="H24">
-        <v>0.00137992928976273</v>
+        <v>0.001380900076718214</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>46.74692217289881</v>
+        <v>46.82944185980975</v>
       </c>
       <c r="D25">
-        <v>0.9490815975266007</v>
+        <v>0.9494429649922164</v>
       </c>
       <c r="E25">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F25">
         <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>0.0008557345287975692</v>
+        <v>0.0004811917652439935</v>
       </c>
       <c r="H25">
-        <v>0.001367892542350293</v>
+        <v>0.001368413374133938</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>46.78674018800651</v>
+        <v>46.85307517029815</v>
       </c>
       <c r="D26">
-        <v>0.9400144272645646</v>
+        <v>0.9407350855912191</v>
       </c>
       <c r="E26">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F26">
         <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>0.00018848675890073</v>
+        <v>-9.067054839788647E-05</v>
       </c>
       <c r="H26">
-        <v>0.001354824209117426</v>
+        <v>0.001355862879715594</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>46.82170538105782</v>
+        <v>46.8652048079293</v>
       </c>
       <c r="D27">
-        <v>0.9316314100917729</v>
+        <v>0.9321613493391201</v>
       </c>
       <c r="E27">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F27">
         <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>-0.000497398860248488</v>
+        <v>-0.0009648273225252967</v>
       </c>
       <c r="H27">
-        <v>0.001342741932205788</v>
+        <v>0.001343505723165632</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.80698410579084</v>
+        <v>46.83381324896344</v>
       </c>
       <c r="D28">
-        <v>0.9248333356481721</v>
+        <v>0.9254220159995059</v>
       </c>
       <c r="E28">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F28">
         <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>-0.001435657639701615</v>
+        <v>-0.001878090113276532</v>
       </c>
       <c r="H28">
-        <v>0.001332944001914043</v>
+        <v>0.0013337924552657</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.75045609378681</v>
+        <v>46.76878136231053</v>
       </c>
       <c r="D29">
-        <v>0.9185587637766442</v>
+        <v>0.9188908176927643</v>
       </c>
       <c r="E29">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F29">
         <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>-0.00237134530561538</v>
+        <v>-0.002879753915831351</v>
       </c>
       <c r="H29">
-        <v>0.001323900585529328</v>
+        <v>0.001324379168273638</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.67373278420385</v>
+        <v>46.70724146890588</v>
       </c>
       <c r="D30">
-        <v>0.9133821661823045</v>
+        <v>0.9129202543972502</v>
       </c>
       <c r="E30">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F30">
         <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.003590259997067058</v>
+        <v>-0.003925383354715439</v>
       </c>
       <c r="H30">
-        <v>0.001316439657762422</v>
+        <v>0.001315773913439019</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.59005638655145</v>
+        <v>46.60208376064949</v>
       </c>
       <c r="D31">
-        <v>0.9077260617794713</v>
+        <v>0.9080752979702573</v>
       </c>
       <c r="E31">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F31">
         <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.004747215353670375</v>
+        <v>-0.004986558715579381</v>
       </c>
       <c r="H31">
-        <v>0.001308287626312699</v>
+        <v>0.001308790973529777</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.47427351536494</v>
+        <v>46.48698553830639</v>
       </c>
       <c r="D32">
-        <v>0.9036833528290267</v>
+        <v>0.9037934092902931</v>
       </c>
       <c r="E32">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F32">
         <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.005652983646785703</v>
+        <v>-0.005721014162100158</v>
       </c>
       <c r="H32">
-        <v>0.001302460949830279</v>
+        <v>0.00130261957203199</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.36750692400035</v>
+        <v>46.36868123327673</v>
       </c>
       <c r="D33">
-        <v>0.8998407394426323</v>
+        <v>0.899954043409426</v>
       </c>
       <c r="E33">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F33">
         <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.006285408701683304</v>
+        <v>-0.006385440335767711</v>
       </c>
       <c r="H33">
-        <v>0.001296922667128262</v>
+        <v>0.001297085969895484</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>46.21229858847578</v>
+        <v>46.22501383354368</v>
       </c>
       <c r="D34">
-        <v>0.8959857762377973</v>
+        <v>0.896608599834157</v>
       </c>
       <c r="E34">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F34">
         <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.006755388405561868</v>
+        <v>-0.00706259637076494</v>
       </c>
       <c r="H34">
-        <v>0.001291366584877093</v>
+        <v>0.001292264248212764</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>46.06215092447056</v>
+        <v>46.0673554134366</v>
       </c>
       <c r="D35">
-        <v>0.8930661444702815</v>
+        <v>0.893868772638804</v>
       </c>
       <c r="E35">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F35">
         <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.007279356442325158</v>
+        <v>-0.007375849714223471</v>
       </c>
       <c r="H35">
-        <v>0.00128715857733422</v>
+        <v>0.001288315389444858</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.90250672230513</v>
+        <v>45.91845098302741</v>
       </c>
       <c r="D36">
-        <v>0.8908421904273092</v>
+        <v>0.8910524726225246</v>
       </c>
       <c r="E36">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F36">
         <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.007609448539128216</v>
+        <v>-0.007677688201633703</v>
       </c>
       <c r="H36">
-        <v>0.00128395323634158</v>
+        <v>0.001284256311912083</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>45.74479070151748</v>
+        <v>45.74711090858769</v>
       </c>
       <c r="D37">
-        <v>0.8884292211991233</v>
+        <v>0.8885785096701495</v>
       </c>
       <c r="E37">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F37">
         <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.007690285384846974</v>
+        <v>-0.007839087597489502</v>
       </c>
       <c r="H37">
-        <v>0.001280475471499486</v>
+        <v>0.001280690638021214</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>45.59287063931395</v>
+        <v>45.57722604958349</v>
       </c>
       <c r="D38">
-        <v>0.8866412106467242</v>
+        <v>0.8873975097404815</v>
       </c>
       <c r="E38">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F38">
         <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.007535321941652784</v>
+        <v>-0.007752025654999661</v>
       </c>
       <c r="H38">
-        <v>0.00127789844724083</v>
+        <v>0.001278988486171975</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>45.42535935577943</v>
+        <v>45.42194780637374</v>
       </c>
       <c r="D39">
-        <v>0.8857834197717074</v>
+        <v>0.8860228742011886</v>
       </c>
       <c r="E39">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F39">
         <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.007482370067811672</v>
+        <v>-0.007604774527823243</v>
       </c>
       <c r="H39">
-        <v>0.001276662130211937</v>
+        <v>0.001277007251146927</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>45.25676174910443</v>
+        <v>45.258555426045</v>
       </c>
       <c r="D40">
-        <v>0.884022108724221</v>
+        <v>0.8843975127856083</v>
       </c>
       <c r="E40">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F40">
         <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.007333688327503874</v>
+        <v>-0.007517107777065535</v>
       </c>
       <c r="H40">
-        <v>0.001274123587421839</v>
+        <v>0.001274664649873453</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>45.13706126242484</v>
+        <v>45.11442721767841</v>
       </c>
       <c r="D41">
-        <v>0.8827367596642215</v>
+        <v>0.8830594383506543</v>
       </c>
       <c r="E41">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F41">
         <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.007414648134616142</v>
+        <v>-0.007407038518144749</v>
       </c>
       <c r="H41">
-        <v>0.001272271039234125</v>
+        <v>0.001272736109645244</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>45.00664707781134</v>
+        <v>44.98468972874373</v>
       </c>
       <c r="D42">
-        <v>0.8816710804692002</v>
+        <v>0.8816475982293843</v>
       </c>
       <c r="E42">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F42">
         <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.007372724859192071</v>
+        <v>-0.007340968026598782</v>
       </c>
       <c r="H42">
-        <v>0.001270735096879741</v>
+        <v>0.001270701252391759</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.86497171362069</v>
+        <v>44.85059148898488</v>
       </c>
       <c r="D43">
-        <v>0.8813771516017813</v>
+        <v>0.8809029256094766</v>
       </c>
       <c r="E43">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F43">
         <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.007474763064196743</v>
+        <v>-0.007481370155554989</v>
       </c>
       <c r="H43">
-        <v>0.001270311463014359</v>
+        <v>0.001269627970467508</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.72911658990451</v>
+        <v>44.71571373869693</v>
       </c>
       <c r="D44">
-        <v>0.8806840985007595</v>
+        <v>0.880599802156441</v>
       </c>
       <c r="E44">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F44">
         <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.007597720798776342</v>
+        <v>-0.007658384027301457</v>
       </c>
       <c r="H44">
-        <v>0.001269312579282115</v>
+        <v>0.001269191084627661</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.5584469999789</v>
+        <v>44.56198474568453</v>
       </c>
       <c r="D45">
-        <v>0.8796061695280055</v>
+        <v>0.8799741900306439</v>
       </c>
       <c r="E45">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F45">
         <v>1097.03775721248</v>
       </c>
       <c r="H45">
-        <v>0.001267758981565274</v>
+        <v>0.001268289402239643</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.41323466184322</v>
+        <v>44.40267116532768</v>
       </c>
       <c r="D46">
-        <v>0.8798653599507557</v>
+        <v>0.879896882990744</v>
       </c>
       <c r="E46">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F46">
         <v>1097.03775721248</v>
       </c>
       <c r="H46">
-        <v>0.001268132547597165</v>
+        <v>0.001268177981131462</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.22939726550795</v>
+        <v>44.22492858148494</v>
       </c>
       <c r="D47">
-        <v>0.8793425845706744</v>
+        <v>0.8796407768165361</v>
       </c>
       <c r="E47">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F47">
         <v>1097.03775721248</v>
       </c>
       <c r="H47">
-        <v>0.001267379081777575</v>
+        <v>0.001267808860366017</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.04112642130021</v>
+        <v>44.03321398167677</v>
       </c>
       <c r="D48">
-        <v>0.8789161881209023</v>
+        <v>0.8789465668165354</v>
       </c>
       <c r="E48">
-        <v>224.3378993698536</v>
+        <v>222.4240095736317</v>
       </c>
       <c r="F48">
         <v>1097.03775721248</v>
       </c>
       <c r="H48">
-        <v>0.001266764525004746</v>
+        <v>0.001266808309218149</v>
       </c>
     </row>
   </sheetData>
